--- a/Running projects/BAF Head Office/Revised H.V.A.C Maintenance 2024.xlsx
+++ b/Running projects/BAF Head Office/Revised H.V.A.C Maintenance 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\Projects 2023\BAF Head Office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C876ED-5430-4011-B418-315BAB306F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31E4E41-9F38-4F3B-9568-308F4EC2B7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="116">
   <si>
     <t>S.NO</t>
   </si>
@@ -391,12 +391,31 @@
   <si>
     <t>For Pioneer Services</t>
   </si>
+  <si>
+    <t>Less 5.5% on Material Amount</t>
+  </si>
+  <si>
+    <t>Less 5/118% on material amount due to Unregistered</t>
+  </si>
+  <si>
+    <t>Less 11% on Labour</t>
+  </si>
+  <si>
+    <t>Less 20% on SST</t>
+  </si>
+  <si>
+    <t>Net Payable</t>
+  </si>
+  <si>
+    <t>Total Deductins</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
@@ -927,7 +946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1204,9 +1223,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1252,14 +1280,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1752,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:E37"/>
+  <dimension ref="A10:H51"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,8 +1791,8 @@
     <col min="3" max="3" width="17.42578125" style="29" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="29" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="257" max="257" width="6.28515625" customWidth="1"/>
     <col min="258" max="258" width="40.7109375" customWidth="1"/>
     <col min="259" max="259" width="17.42578125" customWidth="1"/>
@@ -2085,14 +2111,14 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
     </row>
     <row r="11" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="94" t="s">
         <v>108</v>
       </c>
       <c r="B11" s="27"/>
@@ -2135,13 +2161,13 @@
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" s="13" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
     </row>
     <row r="17" spans="1:5" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
@@ -2389,7 +2415,7 @@
         <v>449663.5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="78"/>
       <c r="B33" s="81" t="s">
         <v>103</v>
@@ -2406,13 +2432,126 @@
         <f>E32+E31</f>
         <v>29896813.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="112" t="s">
+      <c r="H33" s="113"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="62"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="112"/>
-      <c r="C37" s="112"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="113"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="114">
+        <f>C33*8%</f>
+        <v>2079056</v>
+      </c>
+      <c r="D40" s="114">
+        <f>D33*8%</f>
+        <v>312689.08</v>
+      </c>
+      <c r="E40" s="115"/>
+      <c r="H40" s="113"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="115"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="115"/>
+      <c r="G42" s="113"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="114">
+        <f>C33*5.5%</f>
+        <v>1429351</v>
+      </c>
+      <c r="D43" s="114"/>
+      <c r="E43" s="115"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="114">
+        <f>C33*5/118</f>
+        <v>1101194.9152542374</v>
+      </c>
+      <c r="D44" s="114"/>
+      <c r="E44" s="115"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="115"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="114">
+        <f>D33*11%</f>
+        <v>429947.48499999999</v>
+      </c>
+      <c r="D46" s="114"/>
+      <c r="E46" s="115"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="114">
+        <f>D32*20%</f>
+        <v>89932.700000000012</v>
+      </c>
+      <c r="D47" s="114"/>
+      <c r="E47" s="115"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="115"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="114">
+        <f>SUM(C43:C47)</f>
+        <v>3050426.1002542372</v>
+      </c>
+      <c r="D49" s="114"/>
+      <c r="E49" s="115"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="115"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="114">
+        <f>E33-C49</f>
+        <v>26846387.399745762</v>
+      </c>
+      <c r="D51" s="114"/>
+      <c r="E51" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2450,17 +2589,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="86" t="s">
@@ -3100,14 +3239,14 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
       <c r="G22" s="85">
         <f>SUM(G3:G21)</f>
         <v>1319000</v>
@@ -3122,14 +3261,14 @@
       </c>
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
       <c r="G23" s="67">
         <f>G22*5%</f>
         <v>65950</v>
@@ -3144,14 +3283,14 @@
       </c>
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
       <c r="G24" s="67">
         <f>G22-G23</f>
         <v>1253050</v>
@@ -3166,14 +3305,14 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="95" t="s">
+      <c r="A25" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
       <c r="G25" s="67">
         <v>0</v>
       </c>
@@ -3187,14 +3326,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="95" t="s">
+      <c r="A26" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
       <c r="G26" s="67">
         <f>G25+G24</f>
         <v>1253050</v>
@@ -3253,14 +3392,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -3493,12 +3632,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
       <c r="E13" s="50"/>
       <c r="F13" s="56">
         <f>SUM(F3:F12)</f>
@@ -3506,26 +3645,26 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="108"/>
       <c r="F14" s="56">
         <f>F13*5%</f>
         <v>32500</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="108"/>
       <c r="F15" s="56">
         <f>F13-F14</f>
         <v>617500</v>
@@ -3564,14 +3703,14 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -3720,12 +3859,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="49"/>
       <c r="F10" s="48">
         <f>SUM(F2:F9)</f>
@@ -3733,26 +3872,26 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="56">
         <f>F10*5%</f>
         <v>24500</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="105"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="108"/>
       <c r="F12" s="56">
         <f>F10-F11</f>
         <v>465500</v>
@@ -3793,17 +3932,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="86" t="s">
@@ -4200,14 +4339,14 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="61">
         <f>SUM(G4:G14)</f>
         <v>10390000</v>
@@ -4222,14 +4361,14 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="67">
         <f>G15*5%</f>
         <v>519500</v>
@@ -4244,14 +4383,14 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
       <c r="G17" s="67">
         <f>G15-G16</f>
         <v>9870500</v>
@@ -4266,14 +4405,14 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
       <c r="G18" s="67">
         <v>0</v>
       </c>
@@ -4287,14 +4426,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
       <c r="G19" s="67">
         <f>G18+G17</f>
         <v>9870500</v>
@@ -4352,7 +4491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -4892,14 +5031,14 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
       <c r="G18" s="61">
         <f t="shared" ref="G18:H18" si="3">SUM(G3:G17)</f>
         <v>15647000</v>
@@ -4914,14 +5053,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
       <c r="G19" s="67">
         <f>G18*5%</f>
         <v>782350</v>
@@ -4936,14 +5075,14 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
       <c r="G20" s="67">
         <f>G18-G19</f>
         <v>14864650</v>
@@ -4958,14 +5097,14 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="67">
         <v>0</v>
       </c>
@@ -4979,14 +5118,14 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="67">
         <f>G21+G20</f>
         <v>14864650</v>

--- a/Running projects/BAF Head Office/Revised H.V.A.C Maintenance 2024.xlsx
+++ b/Running projects/BAF Head Office/Revised H.V.A.C Maintenance 2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31E4E41-9F38-4F3B-9568-308F4EC2B7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4526FB-083A-4E70-A9AA-05CC1CE70F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1226,66 +1226,66 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1780,7 +1780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A10:H51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -2111,11 +2111,11 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
     </row>
     <row r="11" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="s">
@@ -2161,13 +2161,13 @@
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" s="13" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
     </row>
     <row r="17" spans="1:5" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
@@ -2432,126 +2432,126 @@
         <f>E32+E31</f>
         <v>29896813.5</v>
       </c>
-      <c r="H33" s="113"/>
+      <c r="H33" s="95"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G36" s="62"/>
     </row>
     <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="97" t="s">
+      <c r="A37" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G39" s="113"/>
+      <c r="G39" s="95"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="114">
+      <c r="C40" s="96">
         <f>C33*8%</f>
         <v>2079056</v>
       </c>
-      <c r="D40" s="114">
+      <c r="D40" s="96">
         <f>D33*8%</f>
         <v>312689.08</v>
       </c>
-      <c r="E40" s="115"/>
-      <c r="H40" s="113"/>
+      <c r="E40" s="97"/>
+      <c r="H40" s="95"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="115"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="97"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="115"/>
-      <c r="G42" s="113"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="97"/>
+      <c r="G42" s="95"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="114">
+      <c r="C43" s="96">
         <f>C33*5.5%</f>
         <v>1429351</v>
       </c>
-      <c r="D43" s="114"/>
-      <c r="E43" s="115"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="97"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="114">
+      <c r="C44" s="96">
         <f>C33*5/118</f>
         <v>1101194.9152542374</v>
       </c>
-      <c r="D44" s="114"/>
-      <c r="E44" s="115"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="97"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="115"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="97"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="114">
+      <c r="C46" s="96">
         <f>D33*11%</f>
         <v>429947.48499999999</v>
       </c>
-      <c r="D46" s="114"/>
-      <c r="E46" s="115"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="97"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="114">
+      <c r="C47" s="96">
         <f>D32*20%</f>
         <v>89932.700000000012</v>
       </c>
-      <c r="D47" s="114"/>
-      <c r="E47" s="115"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="97"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="114"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="115"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="97"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="114">
+      <c r="C49" s="96">
         <f>SUM(C43:C47)</f>
         <v>3050426.1002542372</v>
       </c>
-      <c r="D49" s="114"/>
-      <c r="E49" s="115"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="97"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="115"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="97"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="114">
+      <c r="C51" s="96">
         <f>E33-C49</f>
         <v>26846387.399745762</v>
       </c>
-      <c r="D51" s="114"/>
-      <c r="E51" s="115"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2589,17 +2589,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="86" t="s">
@@ -3239,14 +3239,14 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
       <c r="G22" s="85">
         <f>SUM(G3:G21)</f>
         <v>1319000</v>
@@ -3261,14 +3261,14 @@
       </c>
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="67">
         <f>G22*5%</f>
         <v>65950</v>
@@ -3283,14 +3283,14 @@
       </c>
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="98" t="s">
+      <c r="A24" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="98"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
       <c r="G24" s="67">
         <f>G22-G23</f>
         <v>1253050</v>
@@ -3305,14 +3305,14 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
       <c r="G25" s="67">
         <v>0</v>
       </c>
@@ -3326,14 +3326,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
       <c r="G26" s="67">
         <f>G25+G24</f>
         <v>1253050</v>
@@ -3392,14 +3392,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -3632,12 +3632,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
       <c r="E13" s="50"/>
       <c r="F13" s="56">
         <f>SUM(F3:F12)</f>
@@ -3645,26 +3645,26 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="108"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="56">
         <f>F13*5%</f>
         <v>32500</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="108"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="56">
         <f>F13-F14</f>
         <v>617500</v>
@@ -3703,14 +3703,14 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="114"/>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -3859,12 +3859,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="49"/>
       <c r="F10" s="48">
         <f>SUM(F2:F9)</f>
@@ -3872,26 +3872,26 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="108"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="56">
         <f>F10*5%</f>
         <v>24500</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="108"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="111"/>
       <c r="F12" s="56">
         <f>F10-F11</f>
         <v>465500</v>
@@ -3932,17 +3932,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="86" t="s">
@@ -4339,14 +4339,14 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
       <c r="G15" s="61">
         <f>SUM(G4:G14)</f>
         <v>10390000</v>
@@ -4361,14 +4361,14 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
       <c r="G16" s="67">
         <f>G15*5%</f>
         <v>519500</v>
@@ -4383,14 +4383,14 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
       <c r="G17" s="67">
         <f>G15-G16</f>
         <v>9870500</v>
@@ -4405,14 +4405,14 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
       <c r="G18" s="67">
         <v>0</v>
       </c>
@@ -4426,14 +4426,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
       <c r="G19" s="67">
         <f>G18+G17</f>
         <v>9870500</v>
@@ -5031,14 +5031,14 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
       <c r="G18" s="61">
         <f t="shared" ref="G18:H18" si="3">SUM(G3:G17)</f>
         <v>15647000</v>
@@ -5053,14 +5053,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
       <c r="G19" s="67">
         <f>G18*5%</f>
         <v>782350</v>
@@ -5075,14 +5075,14 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
       <c r="G20" s="67">
         <f>G18-G19</f>
         <v>14864650</v>
@@ -5097,14 +5097,14 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
       <c r="G21" s="67">
         <v>0</v>
       </c>
@@ -5118,14 +5118,14 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
       <c r="G22" s="67">
         <f>G21+G20</f>
         <v>14864650</v>
